--- a/out/CE/FigA_24.xlsx
+++ b/out/CE/FigA_24.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7DB071-F043-45A3-AE81-9DAADBD936C2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.90744000000000002</v>
+        <v>0.89051999999999998</v>
       </c>
       <c r="B1">
-        <v>0.88427999999999995</v>
+        <v>0.90658000000000005</v>
       </c>
       <c r="C1">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.90583999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.90617999999999999</v>
+      </c>
+      <c r="F1">
+        <v>0.92045999999999994</v>
+      </c>
+      <c r="G1">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="H1">
+        <v>0.89507999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.90878000000000003</v>
+      </c>
+      <c r="J1">
+        <v>0.90513999999999994</v>
+      </c>
+      <c r="K1">
+        <v>0.90686</v>
+      </c>
+      <c r="L1">
+        <v>0.90217999999999998</v>
+      </c>
+      <c r="M1">
+        <v>0.89271999999999996</v>
+      </c>
+      <c r="N1">
+        <v>0.89744000000000002</v>
+      </c>
+      <c r="O1">
+        <v>0.8931</v>
+      </c>
+      <c r="P1">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.89558000000000004</v>
+      </c>
+      <c r="S1">
+        <v>0.90573999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.89758000000000004</v>
+      </c>
+      <c r="U1">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="V1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="W1">
+        <v>0.90336000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.89415999999999995</v>
+      </c>
+      <c r="Y1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.90273999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.90644000000000002</v>
+      </c>
+      <c r="AC1">
+        <v>0.89344000000000001</v>
+      </c>
+      <c r="AD1">
+        <v>0.88071999999999995</v>
+      </c>
+      <c r="AE1">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.90903999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.87646000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.89571999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.90076000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.88685999999999998</v>
+      </c>
+      <c r="AK1">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="AL1">
+        <v>0.88895999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.91425999999999996</v>
+      </c>
+      <c r="AN1">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="AO1">
+        <v>0.87771999999999994</v>
+      </c>
+      <c r="AP1">
+        <v>0.90832000000000002</v>
+      </c>
+      <c r="AQ1">
+        <v>0.89783999999999997</v>
+      </c>
+      <c r="AR1">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.91</v>
+      </c>
+      <c r="AT1">
+        <v>0.89988000000000001</v>
+      </c>
+      <c r="AU1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AV1">
+        <v>0.89946000000000004</v>
+      </c>
+      <c r="AW1">
+        <v>0.91183999999999998</v>
+      </c>
+      <c r="AX1">
+        <v>0.90066000000000002</v>
+      </c>
+      <c r="AY1">
+        <v>0.89995999999999998</v>
+      </c>
+      <c r="AZ1">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="BA1">
+        <v>0.87656000000000001</v>
+      </c>
+      <c r="BB1">
+        <v>0.90568000000000004</v>
+      </c>
+      <c r="BC1">
+        <v>0.90351999999999999</v>
+      </c>
+      <c r="BD1">
+        <v>0.90383999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>0.90598000000000001</v>
+      </c>
+      <c r="BF1">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="BG1">
+        <v>0.89968000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.92245999999999995</v>
+      </c>
+      <c r="BI1">
+        <v>0.88846000000000003</v>
+      </c>
+      <c r="BJ1">
+        <v>0.88341999999999998</v>
+      </c>
+      <c r="BK1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="BL1">
+        <v>0.8871</v>
+      </c>
+      <c r="BM1">
+        <v>0.89556000000000002</v>
+      </c>
+      <c r="BN1">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.89992000000000005</v>
+      </c>
+      <c r="BP1">
+        <v>0.88302000000000003</v>
+      </c>
+      <c r="BQ1">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="BR1">
+        <v>0.89193999999999996</v>
+      </c>
+      <c r="BS1">
+        <v>0.90095999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="BU1">
+        <v>0.87744</v>
+      </c>
+      <c r="BV1">
+        <v>0.88461999999999996</v>
+      </c>
+      <c r="BW1">
+        <v>0.89222000000000001</v>
+      </c>
+      <c r="BX1">
+        <v>0.90903999999999996</v>
+      </c>
+      <c r="BY1">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.90532000000000001</v>
+      </c>
+      <c r="CA1">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="CB1">
+        <v>0.90081999999999995</v>
+      </c>
+      <c r="CC1">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>0.89727999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>0.88317999999999997</v>
+      </c>
+      <c r="CF1">
+        <v>0.89424000000000003</v>
+      </c>
+      <c r="CG1">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="CH1">
+        <v>0.91235999999999995</v>
+      </c>
+      <c r="CI1">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="CJ1">
+        <v>0.89814000000000005</v>
+      </c>
+      <c r="CK1">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="CL1">
+        <v>0.89426000000000005</v>
+      </c>
+      <c r="CM1">
+        <v>0.90898000000000001</v>
+      </c>
+      <c r="CN1">
+        <v>0.87644</v>
+      </c>
+      <c r="CO1">
+        <v>0.90591999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.88836000000000004</v>
+      </c>
+      <c r="CQ1">
+        <v>0.90971999999999997</v>
+      </c>
+      <c r="CR1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.88526000000000005</v>
+      </c>
+      <c r="CT1">
+        <v>0.88463999999999998</v>
+      </c>
+      <c r="CU1">
+        <v>0.88227999999999995</v>
+      </c>
+      <c r="CV1">
+        <v>0.9022</v>
+      </c>
+      <c r="CW1">
+        <v>0.89836739999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.90064</v>
+      </c>
+      <c r="B2">
+        <v>0.91098000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.90366000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.88968000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.88761999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.91852</v>
+      </c>
+      <c r="G2">
+        <v>0.9012</v>
+      </c>
+      <c r="H2">
+        <v>0.89366000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.88305999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.88846000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.90895999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.90751999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.90737999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.91491999999999996</v>
+      </c>
+      <c r="P2">
+        <v>0.89868000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.88944000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.92161999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="U2">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.89656000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.90627999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.8821</v>
+      </c>
+      <c r="Y2">
+        <v>0.90164</v>
+      </c>
+      <c r="Z2">
+        <v>0.89302000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.91634000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.87944</v>
+      </c>
+      <c r="AC2">
+        <v>0.90788000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>0.89151999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="AH2">
+        <v>0.90002000000000004</v>
+      </c>
+      <c r="AI2">
+        <v>0.87004999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.91166000000000003</v>
+      </c>
+      <c r="AK2">
+        <v>0.88756000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>0.90991999999999995</v>
+      </c>
+      <c r="AM2">
+        <v>0.91417999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.90671999999999997</v>
+      </c>
+      <c r="AO2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>0.88141999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.90215999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>0.89517999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.91005999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="AU2">
+        <v>0.88858000000000004</v>
+      </c>
+      <c r="AV2">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="AW2">
+        <v>0.90305999999999997</v>
+      </c>
+      <c r="AX2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AY2">
+        <v>0.91312000000000004</v>
+      </c>
+      <c r="AZ2">
+        <v>0.90686</v>
+      </c>
+      <c r="BA2">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="BB2">
+        <v>0.89961999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.91213999999999995</v>
+      </c>
+      <c r="BD2">
+        <v>0.90142</v>
+      </c>
+      <c r="BE2">
+        <v>0.88714000000000004</v>
+      </c>
+      <c r="BF2">
+        <v>0.90912000000000004</v>
+      </c>
+      <c r="BG2">
+        <v>0.90337999999999996</v>
+      </c>
+      <c r="BH2">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="BI2">
+        <v>0.89734000000000003</v>
+      </c>
+      <c r="BJ2">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.90773999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="BM2">
+        <v>0.90946000000000005</v>
+      </c>
+      <c r="BN2">
+        <v>0.90708</v>
+      </c>
+      <c r="BO2">
+        <v>0.88888</v>
+      </c>
+      <c r="BP2">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9113</v>
+      </c>
+      <c r="BR2">
+        <v>0.90217999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.90898000000000001</v>
+      </c>
+      <c r="BT2">
+        <v>0.90125999999999995</v>
+      </c>
+      <c r="BU2">
+        <v>0.90725999999999996</v>
+      </c>
+      <c r="BV2">
+        <v>0.89373999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.89646000000000003</v>
+      </c>
+      <c r="BX2">
+        <v>0.89942</v>
+      </c>
+      <c r="BY2">
+        <v>0.90646000000000004</v>
+      </c>
+      <c r="BZ2">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="CA2">
+        <v>0.87894000000000005</v>
+      </c>
+      <c r="CB2">
+        <v>0.89303999999999994</v>
+      </c>
+      <c r="CC2">
+        <v>0.92005999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="CE2">
+        <v>0.89514000000000005</v>
+      </c>
+      <c r="CF2">
+        <v>0.88885999999999998</v>
+      </c>
+      <c r="CG2">
+        <v>0.90266000000000002</v>
+      </c>
+      <c r="CH2">
+        <v>0.90688000000000002</v>
+      </c>
+      <c r="CI2">
+        <v>0.90978000000000003</v>
+      </c>
+      <c r="CJ2">
+        <v>0.90593999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.89688000000000001</v>
+      </c>
+      <c r="CL2">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="CO2">
+        <v>0.89188000000000001</v>
+      </c>
+      <c r="CP2">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="CQ2">
+        <v>0.89568000000000003</v>
+      </c>
+      <c r="CR2">
+        <v>0.88388</v>
+      </c>
+      <c r="CS2">
+        <v>0.89702000000000004</v>
+      </c>
+      <c r="CT2">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="CU2">
+        <v>0.90034000000000003</v>
+      </c>
+      <c r="CV2">
+        <v>0.92291999999999996</v>
+      </c>
+      <c r="CW2">
+        <v>0.90099910000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B3">
+        <v>0.90844000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.89612000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.90088000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.88438000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.91298000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.89188000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.88844000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.90537999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.88597999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.90066000000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.90207999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.89576</v>
+      </c>
+      <c r="Q3">
+        <v>0.90908</v>
+      </c>
+      <c r="R3">
+        <v>0.87336000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.88693999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.89958000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.88904000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.89781999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.90786</v>
+      </c>
+      <c r="X3">
+        <v>0.89161999999999997</v>
+      </c>
+      <c r="Y3">
+        <v>0.90432000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.89651999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>0.90224000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>0.90542</v>
+      </c>
+      <c r="AD3">
+        <v>0.90402000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="AH3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.90491999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.89548000000000005</v>
+      </c>
+      <c r="AM3">
+        <v>0.90532000000000001</v>
+      </c>
+      <c r="AN3">
+        <v>0.90478000000000003</v>
+      </c>
+      <c r="AO3">
+        <v>0.89668000000000003</v>
+      </c>
+      <c r="AP3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.90142</v>
+      </c>
+      <c r="AR3">
+        <v>0.89427999999999996</v>
+      </c>
+      <c r="AS3">
+        <v>0.89403999999999995</v>
+      </c>
+      <c r="AT3">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="AU3">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.90822000000000003</v>
+      </c>
+      <c r="AW3">
+        <v>0.89344000000000001</v>
+      </c>
+      <c r="AX3">
+        <v>0.90195999999999998</v>
+      </c>
+      <c r="AY3">
+        <v>0.89756000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.91425999999999996</v>
+      </c>
+      <c r="BA3">
+        <v>0.89961999999999998</v>
+      </c>
+      <c r="BB3">
+        <v>0.90225999999999995</v>
+      </c>
+      <c r="BC3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="BD3">
+        <v>0.89268000000000003</v>
+      </c>
+      <c r="BE3">
+        <v>0.88497999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.88604000000000005</v>
+      </c>
+      <c r="BG3">
+        <v>0.89668000000000003</v>
+      </c>
+      <c r="BH3">
+        <v>0.91254000000000002</v>
+      </c>
+      <c r="BI3">
+        <v>0.90064</v>
+      </c>
+      <c r="BJ3">
+        <v>0.89407999999999999</v>
+      </c>
+      <c r="BK3">
+        <v>0.89217999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="BN3">
+        <v>0.89837999999999996</v>
+      </c>
+      <c r="BO3">
+        <v>0.90802000000000005</v>
+      </c>
+      <c r="BP3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="BQ3">
+        <v>0.90498000000000001</v>
+      </c>
+      <c r="BR3">
+        <v>0.90861999999999998</v>
+      </c>
+      <c r="BS3">
+        <v>0.88726000000000005</v>
+      </c>
+      <c r="BT3">
+        <v>0.90591999999999995</v>
+      </c>
+      <c r="BU3">
+        <v>0.8972</v>
+      </c>
+      <c r="BV3">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="BW3">
+        <v>0.90425999999999995</v>
+      </c>
+      <c r="BX3">
+        <v>0.89576</v>
+      </c>
+      <c r="BY3">
+        <v>0.88783999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9143</v>
+      </c>
+      <c r="CA3">
+        <v>0.90136000000000005</v>
+      </c>
+      <c r="CB3">
+        <v>0.90314000000000005</v>
+      </c>
+      <c r="CC3">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="CD3">
+        <v>0.90886</v>
+      </c>
+      <c r="CE3">
+        <v>0.88504000000000005</v>
+      </c>
+      <c r="CF3">
+        <v>0.90737999999999996</v>
+      </c>
+      <c r="CG3">
+        <v>0.90551999999999999</v>
+      </c>
+      <c r="CH3">
+        <v>0.89922000000000002</v>
+      </c>
+      <c r="CI3">
+        <v>0.90442</v>
+      </c>
+      <c r="CJ3">
+        <v>0.89892000000000005</v>
+      </c>
+      <c r="CK3">
+        <v>0.90934000000000004</v>
+      </c>
+      <c r="CL3">
+        <v>0.88022</v>
+      </c>
+      <c r="CM3">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="CN3">
+        <v>0.90161999999999998</v>
+      </c>
+      <c r="CO3">
+        <v>0.90476000000000001</v>
+      </c>
+      <c r="CP3">
+        <v>0.90327999999999997</v>
+      </c>
+      <c r="CQ3">
+        <v>0.90278000000000003</v>
+      </c>
+      <c r="CR3">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="CS3">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="CT3">
+        <v>0.89381999999999995</v>
+      </c>
+      <c r="CU3">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="CV3">
+        <v>0.90658000000000005</v>
+      </c>
+      <c r="CW3">
+        <v>0.89941779999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.90336000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.90512000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.90232000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.89515999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.89214000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.89451999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.89358000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.89026000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.89012000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.89012000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.89424000000000003</v>
+      </c>
+      <c r="O4">
+        <v>0.91003999999999996</v>
+      </c>
+      <c r="P4">
+        <v>0.8972</v>
+      </c>
+      <c r="Q4">
+        <v>0.91405999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.90622000000000003</v>
+      </c>
+      <c r="S4">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="T4">
+        <v>0.89458000000000004</v>
+      </c>
+      <c r="U4">
+        <v>0.88668000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="W4">
+        <v>0.91402000000000005</v>
+      </c>
+      <c r="X4">
+        <v>0.91056000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>0.88392000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.89754</v>
+      </c>
+      <c r="AA4">
+        <v>0.90383999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="AD4">
+        <v>0.89781999999999995</v>
+      </c>
+      <c r="AE4">
+        <v>0.90373999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.8921</v>
+      </c>
+      <c r="AG4">
+        <v>0.91556000000000004</v>
+      </c>
+      <c r="AH4">
+        <v>0.89625999999999995</v>
+      </c>
+      <c r="AI4">
+        <v>0.90661999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.90334000000000003</v>
+      </c>
+      <c r="AK4">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="AL4">
+        <v>0.90603999999999996</v>
+      </c>
+      <c r="AM4">
+        <v>0.89781999999999995</v>
+      </c>
+      <c r="AN4">
+        <v>0.89344000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.88653999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>0.8901</v>
+      </c>
+      <c r="AQ4">
+        <v>0.89471999999999996</v>
+      </c>
+      <c r="AR4">
+        <v>0.92222000000000004</v>
+      </c>
+      <c r="AS4">
+        <v>0.90625999999999995</v>
+      </c>
+      <c r="AT4">
+        <v>0.90864</v>
+      </c>
+      <c r="AU4">
+        <v>0.88524000000000003</v>
+      </c>
+      <c r="AV4">
+        <v>0.90286</v>
+      </c>
+      <c r="AW4">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="AX4">
+        <v>0.88426000000000005</v>
+      </c>
+      <c r="AY4">
+        <v>0.89046000000000003</v>
+      </c>
+      <c r="AZ4">
+        <v>0.91501999999999994</v>
+      </c>
+      <c r="BA4">
+        <v>0.89605999999999997</v>
+      </c>
+      <c r="BB4">
+        <v>0.90115999999999996</v>
+      </c>
+      <c r="BC4">
+        <v>0.91293999999999997</v>
+      </c>
+      <c r="BD4">
+        <v>0.89944000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.90098</v>
+      </c>
+      <c r="BF4">
+        <v>0.88775999999999999</v>
+      </c>
+      <c r="BG4">
+        <v>0.91015999999999997</v>
+      </c>
+      <c r="BH4">
+        <v>0.90688000000000002</v>
+      </c>
+      <c r="BI4">
+        <v>0.89515999999999996</v>
+      </c>
+      <c r="BJ4">
+        <v>0.89525999999999994</v>
+      </c>
+      <c r="BK4">
+        <v>0.92823999999999995</v>
+      </c>
+      <c r="BL4">
+        <v>0.90586</v>
+      </c>
+      <c r="BM4">
+        <v>0.89346000000000003</v>
+      </c>
+      <c r="BN4">
+        <v>0.87061999999999995</v>
+      </c>
+      <c r="BO4">
+        <v>0.91137999999999997</v>
+      </c>
+      <c r="BP4">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="BQ4">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="BR4">
+        <v>0.89122000000000001</v>
+      </c>
+      <c r="BS4">
+        <v>0.89493999999999996</v>
+      </c>
+      <c r="BT4">
+        <v>0.87516000000000005</v>
+      </c>
+      <c r="BU4">
+        <v>0.91405999999999998</v>
+      </c>
+      <c r="BV4">
+        <v>0.88814000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="BX4">
+        <v>0.89168000000000003</v>
+      </c>
+      <c r="BY4">
+        <v>0.90412000000000003</v>
+      </c>
+      <c r="BZ4">
+        <v>0.91793999999999998</v>
+      </c>
+      <c r="CA4">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="CB4">
+        <v>0.88537999999999994</v>
+      </c>
+      <c r="CC4">
+        <v>0.90917999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.88766</v>
+      </c>
+      <c r="CE4">
+        <v>0.91505999999999998</v>
+      </c>
+      <c r="CF4">
+        <v>0.9083</v>
+      </c>
+      <c r="CG4">
+        <v>0.88424000000000003</v>
+      </c>
+      <c r="CH4">
+        <v>0.90502000000000005</v>
+      </c>
+      <c r="CI4">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="CJ4">
+        <v>0.89205999999999996</v>
+      </c>
+      <c r="CK4">
+        <v>0.90466000000000002</v>
+      </c>
+      <c r="CL4">
+        <v>0.90508</v>
+      </c>
+      <c r="CM4">
+        <v>0.90754000000000001</v>
+      </c>
+      <c r="CN4">
+        <v>0.91903999999999997</v>
+      </c>
+      <c r="CO4">
+        <v>0.91154000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="CQ4">
+        <v>0.90646000000000004</v>
+      </c>
+      <c r="CR4">
+        <v>0.91522000000000003</v>
+      </c>
+      <c r="CS4">
+        <v>0.90371999999999997</v>
+      </c>
+      <c r="CT4">
+        <v>0.88836000000000004</v>
+      </c>
+      <c r="CU4">
+        <v>0.89625999999999995</v>
+      </c>
+      <c r="CV4">
+        <v>0.89107999999999998</v>
+      </c>
+      <c r="CW4">
+        <v>0.90025219999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.89395999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.91395999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.88936000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.89251999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.91286</v>
+      </c>
+      <c r="H5">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="I5">
+        <v>0.92298000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.88022</v>
+      </c>
+      <c r="K5">
+        <v>0.90185999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.89641999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.88593999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.88804000000000005</v>
+      </c>
+      <c r="Q5">
+        <v>0.90678000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.88951999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.91222000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.88658000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>0.90454000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.91352</v>
+      </c>
+      <c r="AA5">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>0.89851999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AD5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.89903999999999995</v>
+      </c>
+      <c r="AF5">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.89703999999999995</v>
+      </c>
+      <c r="AH5">
+        <v>0.90513999999999994</v>
+      </c>
+      <c r="AI5">
+        <v>0.89746000000000004</v>
+      </c>
+      <c r="AJ5">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="AK5">
+        <v>0.91047999999999996</v>
+      </c>
+      <c r="AL5">
+        <v>0.91371999999999998</v>
+      </c>
+      <c r="AM5">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>0.87816000000000005</v>
+      </c>
+      <c r="AO5">
+        <v>0.90766000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>0.89932000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.90978000000000003</v>
+      </c>
+      <c r="AR5">
+        <v>0.90446000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>0.90808</v>
+      </c>
+      <c r="AT5">
+        <v>0.88978000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.91517999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0.91615999999999997</v>
+      </c>
+      <c r="AW5">
+        <v>0.90234000000000003</v>
+      </c>
+      <c r="AX5">
+        <v>0.90427999999999997</v>
+      </c>
+      <c r="AY5">
+        <v>0.91268000000000005</v>
+      </c>
+      <c r="AZ5">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="BA5">
+        <v>0.90376000000000001</v>
+      </c>
+      <c r="BB5">
+        <v>0.89983999999999997</v>
+      </c>
+      <c r="BC5">
+        <v>0.87848000000000004</v>
+      </c>
+      <c r="BD5">
+        <v>0.89015999999999995</v>
+      </c>
+      <c r="BE5">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="BF5">
+        <v>0.90751999999999999</v>
+      </c>
+      <c r="BG5">
+        <v>0.89837999999999996</v>
+      </c>
+      <c r="BH5">
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="BI5">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="BJ5">
+        <v>0.89441999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.91496</v>
+      </c>
+      <c r="BL5">
+        <v>0.90407999999999999</v>
+      </c>
+      <c r="BM5">
+        <v>0.89681999999999995</v>
+      </c>
+      <c r="BN5">
+        <v>0.88051999999999997</v>
+      </c>
+      <c r="BO5">
+        <v>0.91235999999999995</v>
+      </c>
+      <c r="BP5">
+        <v>0.90583999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="BR5">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="BS5">
+        <v>0.89041999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="BU5">
+        <v>0.88088</v>
+      </c>
+      <c r="BV5">
+        <v>0.88793999999999995</v>
+      </c>
+      <c r="BW5">
+        <v>0.89903999999999995</v>
+      </c>
+      <c r="BX5">
+        <v>0.89446000000000003</v>
+      </c>
+      <c r="BY5">
+        <v>0.90158000000000005</v>
+      </c>
+      <c r="BZ5">
+        <v>0.89771999999999996</v>
+      </c>
+      <c r="CA5">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="CB5">
+        <v>0.90695999999999999</v>
+      </c>
+      <c r="CC5">
+        <v>0.90805999999999998</v>
+      </c>
+      <c r="CD5">
+        <v>0.89703999999999995</v>
+      </c>
+      <c r="CE5">
+        <v>0.90188000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="CG5">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="CH5">
+        <v>0.89732000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>0.89048000000000005</v>
+      </c>
+      <c r="CJ5">
+        <v>0.89907999999999999</v>
+      </c>
+      <c r="CK5">
+        <v>0.89527999999999996</v>
+      </c>
+      <c r="CL5">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="CM5">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>0.89024000000000003</v>
+      </c>
+      <c r="CO5">
+        <v>0.90202000000000004</v>
+      </c>
+      <c r="CP5">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="CQ5">
+        <v>0.89703999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.90314000000000005</v>
+      </c>
+      <c r="CS5">
+        <v>0.88651999999999997</v>
+      </c>
+      <c r="CT5">
+        <v>0.91181999999999996</v>
+      </c>
+      <c r="CU5">
+        <v>0.89658000000000004</v>
+      </c>
+      <c r="CV5">
+        <v>0.88473999999999997</v>
+      </c>
+      <c r="CW5">
+        <v>0.89907959999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.92</v>
+      </c>
+      <c r="B6">
+        <v>0.90207999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.89222000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.91152</v>
+      </c>
+      <c r="F6">
+        <v>0.91205999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.90766000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.88844000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.91356000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.89498</v>
+      </c>
+      <c r="K6">
+        <v>0.90525999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.89066000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.88026000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.90837999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.91457999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.90424000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.90942000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.90181999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.90732000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0.90342</v>
+      </c>
+      <c r="W6">
+        <v>0.89907999999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.91712000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.89863999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.91657999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.90224000000000004</v>
+      </c>
+      <c r="AB6">
+        <v>0.89181999999999995</v>
+      </c>
+      <c r="AC6">
+        <v>0.90003999999999995</v>
+      </c>
+      <c r="AD6">
+        <v>0.91783999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.91035999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>0.90673999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>0.90061999999999998</v>
+      </c>
+      <c r="AH6">
+        <v>0.89276</v>
+      </c>
+      <c r="AI6">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="AJ6">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.91013999999999995</v>
+      </c>
+      <c r="AL6">
+        <v>0.90012000000000003</v>
+      </c>
+      <c r="AM6">
+        <v>0.89258000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.88873999999999997</v>
+      </c>
+      <c r="AO6">
+        <v>0.89763999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="AQ6">
+        <v>0.89444000000000001</v>
+      </c>
+      <c r="AR6">
+        <v>0.90649999999999997</v>
+      </c>
+      <c r="AS6">
+        <v>0.89014000000000004</v>
+      </c>
+      <c r="AT6">
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="AU6">
+        <v>0.89615999999999996</v>
+      </c>
+      <c r="AV6">
+        <v>0.91047999999999996</v>
+      </c>
+      <c r="AW6">
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="AX6">
+        <v>0.90705999999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AZ6">
+        <v>0.90142</v>
+      </c>
+      <c r="BA6">
+        <v>0.90898000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.90454000000000001</v>
+      </c>
+      <c r="BC6">
+        <v>0.90536000000000005</v>
+      </c>
+      <c r="BD6">
+        <v>0.90617999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.88078000000000001</v>
+      </c>
+      <c r="BF6">
+        <v>0.90995999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.90447999999999995</v>
+      </c>
+      <c r="BH6">
+        <v>0.91674</v>
+      </c>
+      <c r="BI6">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="BJ6">
+        <v>0.90925999999999996</v>
+      </c>
+      <c r="BK6">
+        <v>0.90017999999999998</v>
+      </c>
+      <c r="BL6">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="BM6">
+        <v>0.91166000000000003</v>
+      </c>
+      <c r="BN6">
+        <v>0.90915999999999997</v>
+      </c>
+      <c r="BO6">
+        <v>0.89783999999999997</v>
+      </c>
+      <c r="BP6">
+        <v>0.89403999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.90532000000000001</v>
+      </c>
+      <c r="BR6">
+        <v>0.89992000000000005</v>
+      </c>
+      <c r="BS6">
+        <v>0.89878000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.92022000000000004</v>
+      </c>
+      <c r="BU6">
+        <v>0.89414000000000005</v>
+      </c>
+      <c r="BV6">
+        <v>0.89402000000000004</v>
+      </c>
+      <c r="BW6">
+        <v>0.91222000000000003</v>
+      </c>
+      <c r="BX6">
+        <v>0.89495999999999998</v>
+      </c>
+      <c r="BY6">
+        <v>0.90246000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.90842000000000001</v>
+      </c>
+      <c r="CA6">
+        <v>0.88868000000000003</v>
+      </c>
+      <c r="CB6">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="CC6">
+        <v>0.91617999999999999</v>
+      </c>
+      <c r="CD6">
+        <v>0.90603999999999996</v>
+      </c>
+      <c r="CE6">
+        <v>0.90264</v>
+      </c>
+      <c r="CF6">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="CG6">
+        <v>0.90466000000000002</v>
+      </c>
+      <c r="CH6">
+        <v>0.89785999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="CJ6">
+        <v>0.88915999999999995</v>
+      </c>
+      <c r="CK6">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="CL6">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="CM6">
+        <v>0.91393999999999997</v>
+      </c>
+      <c r="CN6">
+        <v>0.90988000000000002</v>
+      </c>
+      <c r="CO6">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="CP6">
+        <v>0.90712000000000004</v>
+      </c>
+      <c r="CQ6">
+        <v>0.91127999999999998</v>
+      </c>
+      <c r="CR6">
+        <v>0.91803999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="CT6">
+        <v>0.90746000000000004</v>
+      </c>
+      <c r="CU6">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="CW6">
+        <v>0.90291080000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="B7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.90415999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.90695999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.90491999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.88656000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.91064000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.89548000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.90613999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.91112000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.90334000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.89866000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.91122000000000003</v>
+      </c>
+      <c r="S7">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.89625999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.88373999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.90356000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.91225999999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.90286</v>
+      </c>
+      <c r="Y7">
+        <v>0.88612000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>0.90192000000000005</v>
+      </c>
+      <c r="AA7">
+        <v>0.90168000000000004</v>
+      </c>
+      <c r="AB7">
+        <v>0.90727999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.90944000000000003</v>
+      </c>
+      <c r="AD7">
+        <v>0.91654000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.91703999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.90083999999999997</v>
+      </c>
+      <c r="AG7">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.91132000000000002</v>
+      </c>
+      <c r="AI7">
+        <v>0.90415999999999996</v>
+      </c>
+      <c r="AJ7">
+        <v>0.91496</v>
+      </c>
+      <c r="AK7">
+        <v>0.90378000000000003</v>
+      </c>
+      <c r="AL7">
+        <v>0.90066000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AN7">
+        <v>0.89066000000000001</v>
+      </c>
+      <c r="AO7">
+        <v>0.90195999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.90922000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>0.90503999999999996</v>
+      </c>
+      <c r="AR7">
+        <v>0.88844000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.91815999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.90783999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.90527999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.90173999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="AX7">
+        <v>0.91896</v>
+      </c>
+      <c r="AY7">
+        <v>0.89483999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.91535999999999995</v>
+      </c>
+      <c r="BA7">
+        <v>0.91183999999999998</v>
+      </c>
+      <c r="BB7">
+        <v>0.90846000000000005</v>
+      </c>
+      <c r="BC7">
+        <v>0.90432000000000001</v>
+      </c>
+      <c r="BD7">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="BE7">
+        <v>0.88956000000000002</v>
+      </c>
+      <c r="BF7">
+        <v>0.90425999999999995</v>
+      </c>
+      <c r="BG7">
+        <v>0.89766000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="BI7">
+        <v>0.90861999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.88704000000000005</v>
+      </c>
+      <c r="BK7">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="BL7">
+        <v>0.90637999999999996</v>
+      </c>
+      <c r="BM7">
+        <v>0.90642</v>
+      </c>
+      <c r="BN7">
+        <v>0.90173999999999999</v>
+      </c>
+      <c r="BO7">
+        <v>0.89895999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>0.89115999999999995</v>
+      </c>
+      <c r="BR7">
+        <v>0.91793999999999998</v>
+      </c>
+      <c r="BS7">
+        <v>0.90971999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.90081999999999995</v>
+      </c>
+      <c r="BU7">
+        <v>0.89041999999999999</v>
+      </c>
+      <c r="BV7">
+        <v>0.91102000000000005</v>
+      </c>
+      <c r="BW7">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="BX7">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="BY7">
+        <v>0.89914000000000005</v>
+      </c>
+      <c r="BZ7">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="CA7">
+        <v>0.88868000000000003</v>
+      </c>
+      <c r="CB7">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="CC7">
+        <v>0.88036000000000003</v>
+      </c>
+      <c r="CD7">
+        <v>0.90946000000000005</v>
+      </c>
+      <c r="CE7">
+        <v>0.90903999999999996</v>
+      </c>
+      <c r="CF7">
+        <v>0.90391999999999995</v>
+      </c>
+      <c r="CG7">
+        <v>0.91908000000000001</v>
+      </c>
+      <c r="CH7">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="CI7">
+        <v>0.92545999999999995</v>
+      </c>
+      <c r="CJ7">
+        <v>0.90517999999999998</v>
+      </c>
+      <c r="CK7">
+        <v>0.90622000000000003</v>
+      </c>
+      <c r="CL7">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="CM7">
+        <v>0.90461999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="CO7">
+        <v>0.8952</v>
+      </c>
+      <c r="CP7">
+        <v>0.91344000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="CR7">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="CS7">
+        <v>0.90864</v>
+      </c>
+      <c r="CT7">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.89754</v>
+      </c>
+      <c r="CV7">
+        <v>0.89222000000000001</v>
+      </c>
+      <c r="CW7">
+        <v>0.90263639999999967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.89607999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.90015999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.90498000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.91337999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.89163999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.89958000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.8851</v>
+      </c>
+      <c r="J8">
+        <v>0.89368000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.89703999999999995</v>
+      </c>
+      <c r="L8">
+        <v>0.89592000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.89363999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.90778000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.90036000000000005</v>
+      </c>
+      <c r="P8">
+        <v>0.89722000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.90425999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.89927999999999997</v>
+      </c>
+      <c r="S8">
+        <v>0.87724000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.89737999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.89692000000000005</v>
+      </c>
+      <c r="V8">
+        <v>0.91415000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.91225999999999996</v>
+      </c>
+      <c r="X8">
+        <v>0.90207999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.91678000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.89205999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>0.88588</v>
+      </c>
+      <c r="AB8">
+        <v>0.90371999999999997</v>
+      </c>
+      <c r="AC8">
+        <v>0.90547999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.90222000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AF8">
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>0.90058000000000005</v>
+      </c>
+      <c r="AI8">
+        <v>0.90288000000000002</v>
+      </c>
+      <c r="AJ8">
+        <v>0.90215999999999996</v>
+      </c>
+      <c r="AK8">
+        <v>0.90071999999999997</v>
+      </c>
+      <c r="AL8">
+        <v>0.89758000000000004</v>
+      </c>
+      <c r="AM8">
+        <v>0.88802000000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.90073999999999999</v>
+      </c>
+      <c r="AO8">
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="AP8">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="AQ8">
+        <v>0.88248000000000004</v>
+      </c>
+      <c r="AR8">
+        <v>0.90566000000000002</v>
+      </c>
+      <c r="AS8">
+        <v>0.89814000000000005</v>
+      </c>
+      <c r="AT8">
+        <v>0.91152</v>
+      </c>
+      <c r="AU8">
+        <v>0.90114000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.90168000000000004</v>
+      </c>
+      <c r="AW8">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="AX8">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="AY8">
+        <v>0.90325999999999995</v>
+      </c>
+      <c r="AZ8">
+        <v>0.88231999999999999</v>
+      </c>
+      <c r="BA8">
+        <v>0.90322000000000002</v>
+      </c>
+      <c r="BB8">
+        <v>0.91122000000000003</v>
+      </c>
+      <c r="BC8">
+        <v>0.89202000000000004</v>
+      </c>
+      <c r="BD8">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="BE8">
+        <v>0.88568000000000002</v>
+      </c>
+      <c r="BF8">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.90654000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="BI8">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.90932000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>0.9103</v>
+      </c>
+      <c r="BL8">
+        <v>0.89663999999999999</v>
+      </c>
+      <c r="BM8">
+        <v>0.89995999999999998</v>
+      </c>
+      <c r="BN8">
+        <v>0.89356000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="BP8">
+        <v>0.89712000000000003</v>
+      </c>
+      <c r="BQ8">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="BR8">
+        <v>0.90256000000000003</v>
+      </c>
+      <c r="BS8">
+        <v>0.88961999999999997</v>
+      </c>
+      <c r="BT8">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="BU8">
+        <v>0.89958000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.89966000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>0.90683999999999998</v>
+      </c>
+      <c r="BX8">
+        <v>0.90156000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.91154000000000002</v>
+      </c>
+      <c r="BZ8">
+        <v>0.91103999999999996</v>
+      </c>
+      <c r="CA8">
+        <v>0.8982</v>
+      </c>
+      <c r="CB8">
+        <v>0.89336000000000004</v>
+      </c>
+      <c r="CC8">
+        <v>0.90636000000000005</v>
+      </c>
+      <c r="CD8">
+        <v>0.91235999999999995</v>
+      </c>
+      <c r="CE8">
+        <v>0.89148000000000005</v>
+      </c>
+      <c r="CF8">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="CG8">
+        <v>0.90332000000000001</v>
+      </c>
+      <c r="CH8">
+        <v>0.90251999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.88146000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.90591999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.89204000000000006</v>
+      </c>
+      <c r="CL8">
+        <v>0.88063999999999998</v>
+      </c>
+      <c r="CM8">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="CN8">
+        <v>0.90861999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>0.91393999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.91712000000000005</v>
+      </c>
+      <c r="CQ8">
+        <v>0.90591999999999995</v>
+      </c>
+      <c r="CR8">
+        <v>0.90613999999999995</v>
+      </c>
+      <c r="CS8">
+        <v>0.90247999999999995</v>
+      </c>
+      <c r="CT8">
+        <v>0.9032</v>
+      </c>
+      <c r="CU8">
+        <v>0.90478000000000003</v>
+      </c>
+      <c r="CV8">
+        <v>0.90491999999999995</v>
+      </c>
+      <c r="CW8">
+        <v>0.90082950000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.89988000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.89725999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.9022</v>
+      </c>
+      <c r="G9">
+        <v>0.89985999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.88322000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.88892000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.90142</v>
+      </c>
+      <c r="L9">
+        <v>0.90117999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.90083999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.90968000000000004</v>
+      </c>
+      <c r="P9">
+        <v>0.88722000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.91078000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.90247999999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.90064</v>
+      </c>
+      <c r="T9">
+        <v>0.92296</v>
+      </c>
+      <c r="U9">
+        <v>0.90686</v>
+      </c>
+      <c r="V9">
+        <v>0.90351999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.91113999999999995</v>
+      </c>
+      <c r="X9">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="Y9">
+        <v>0.90964</v>
+      </c>
+      <c r="Z9">
+        <v>0.90837999999999997</v>
+      </c>
+      <c r="AA9">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="AB9">
+        <v>0.92712000000000006</v>
+      </c>
+      <c r="AC9">
+        <v>0.90532000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.90373999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.89083999999999997</v>
+      </c>
+      <c r="AF9">
+        <v>0.90591999999999995</v>
+      </c>
+      <c r="AG9">
+        <v>0.91147999999999996</v>
+      </c>
+      <c r="AH9">
+        <v>0.91383999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>0.91525999999999996</v>
+      </c>
+      <c r="AK9">
+        <v>0.91015999999999997</v>
+      </c>
+      <c r="AL9">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.90227999999999997</v>
+      </c>
+      <c r="AN9">
+        <v>0.90624000000000005</v>
+      </c>
+      <c r="AO9">
+        <v>0.91808000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.89493999999999996</v>
+      </c>
+      <c r="AQ9">
+        <v>0.9103</v>
+      </c>
+      <c r="AR9">
+        <v>0.90798000000000001</v>
+      </c>
+      <c r="AS9">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="AT9">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.90005999999999997</v>
+      </c>
+      <c r="AV9">
+        <v>0.91466000000000003</v>
+      </c>
+      <c r="AW9">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="AX9">
         <v>0.89585999999999999</v>
       </c>
+      <c r="AY9">
+        <v>0.89485999999999999</v>
+      </c>
+      <c r="AZ9">
+        <v>0.89736000000000005</v>
+      </c>
+      <c r="BA9">
+        <v>0.90102000000000004</v>
+      </c>
+      <c r="BB9">
+        <v>0.91308</v>
+      </c>
+      <c r="BC9">
+        <v>0.91942000000000002</v>
+      </c>
+      <c r="BD9">
+        <v>0.90932000000000002</v>
+      </c>
+      <c r="BE9">
+        <v>0.91617999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>0.89461999999999997</v>
+      </c>
+      <c r="BG9">
+        <v>0.90717999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="BI9">
+        <v>0.91542000000000001</v>
+      </c>
+      <c r="BJ9">
+        <v>0.91544000000000003</v>
+      </c>
+      <c r="BK9">
+        <v>0.91796</v>
+      </c>
+      <c r="BL9">
+        <v>0.90146000000000004</v>
+      </c>
+      <c r="BM9">
+        <v>0.89234000000000002</v>
+      </c>
+      <c r="BN9">
+        <v>0.90344000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.89995999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="BS9">
+        <v>0.90307999999999999</v>
+      </c>
+      <c r="BT9">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="BU9">
+        <v>0.91325999999999996</v>
+      </c>
+      <c r="BV9">
+        <v>0.9153</v>
+      </c>
+      <c r="BW9">
+        <v>0.90432000000000001</v>
+      </c>
+      <c r="BX9">
+        <v>0.91317999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="BZ9">
+        <v>0.90202000000000004</v>
+      </c>
+      <c r="CA9">
+        <v>0.90307999999999999</v>
+      </c>
+      <c r="CB9">
+        <v>0.90227999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.88661999999999996</v>
+      </c>
+      <c r="CD9">
+        <v>0.87697999999999998</v>
+      </c>
+      <c r="CE9">
+        <v>0.91532000000000002</v>
+      </c>
+      <c r="CF9">
+        <v>0.89525999999999994</v>
+      </c>
+      <c r="CG9">
+        <v>0.8931</v>
+      </c>
+      <c r="CH9">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="CI9">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="CJ9">
+        <v>0.89803999999999995</v>
+      </c>
+      <c r="CK9">
+        <v>0.89636000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="CM9">
+        <v>0.89736000000000005</v>
+      </c>
+      <c r="CN9">
+        <v>0.91434000000000004</v>
+      </c>
+      <c r="CO9">
+        <v>0.89581999999999995</v>
+      </c>
+      <c r="CP9">
+        <v>0.89476</v>
+      </c>
+      <c r="CQ9">
+        <v>0.89593999999999996</v>
+      </c>
+      <c r="CR9">
+        <v>0.88958000000000004</v>
+      </c>
+      <c r="CS9">
+        <v>0.89951999999999999</v>
+      </c>
+      <c r="CT9">
+        <v>0.91756000000000004</v>
+      </c>
+      <c r="CU9">
+        <v>0.90842000000000001</v>
+      </c>
+      <c r="CV9">
+        <v>0.90088000000000001</v>
+      </c>
+      <c r="CW9">
+        <v>0.90395599999999954</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.91357999999999995</v>
-      </c>
-      <c r="B2">
-        <v>0.90473999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.90915999999999997</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.90912000000000004</v>
+      </c>
+      <c r="B10">
+        <v>0.90905999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.89617999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.90702000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.91527999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.90188000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.91835999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.92061999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.90546000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.89592000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.90525999999999995</v>
+      </c>
+      <c r="N10">
+        <v>0.89571999999999996</v>
+      </c>
+      <c r="O10">
+        <v>0.89817999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.89983999999999997</v>
+      </c>
+      <c r="Q10">
+        <v>0.9002</v>
+      </c>
+      <c r="R10">
+        <v>0.89878000000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.90314000000000005</v>
+      </c>
+      <c r="T10">
+        <v>0.89122000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.9012</v>
+      </c>
+      <c r="V10">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="W10">
+        <v>0.90908</v>
+      </c>
+      <c r="X10">
+        <v>0.89971999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.92213999999999996</v>
+      </c>
+      <c r="AA10">
+        <v>0.89798</v>
+      </c>
+      <c r="AB10">
+        <v>0.90446000000000004</v>
+      </c>
+      <c r="AC10">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="AF10">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AG10">
+        <v>0.91278000000000004</v>
+      </c>
+      <c r="AH10">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="AI10">
+        <v>0.91742000000000001</v>
+      </c>
+      <c r="AJ10">
+        <v>0.91037999999999997</v>
+      </c>
+      <c r="AK10">
+        <v>0.90071999999999997</v>
+      </c>
+      <c r="AL10">
+        <v>0.90651999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="AN10">
+        <v>0.90147999999999995</v>
+      </c>
+      <c r="AO10">
+        <v>0.91146000000000005</v>
+      </c>
+      <c r="AP10">
+        <v>0.89227999999999996</v>
+      </c>
+      <c r="AQ10">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>0.91352</v>
+      </c>
+      <c r="AS10">
+        <v>0.89204000000000006</v>
+      </c>
+      <c r="AT10">
+        <v>0.90225999999999995</v>
+      </c>
+      <c r="AU10">
+        <v>0.91783999999999999</v>
+      </c>
+      <c r="AV10">
+        <v>0.90564</v>
+      </c>
+      <c r="AW10">
+        <v>0.89702000000000004</v>
+      </c>
+      <c r="AX10">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="AY10">
+        <v>0.88414000000000004</v>
+      </c>
+      <c r="AZ10">
+        <v>0.90451999999999999</v>
+      </c>
+      <c r="BA10">
+        <v>0.89768000000000003</v>
+      </c>
+      <c r="BB10">
+        <v>0.91846000000000005</v>
+      </c>
+      <c r="BC10">
+        <v>0.91846000000000005</v>
+      </c>
+      <c r="BD10">
+        <v>0.90422000000000002</v>
+      </c>
+      <c r="BE10">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="BF10">
+        <v>0.88666</v>
+      </c>
+      <c r="BG10">
+        <v>0.90513999999999994</v>
+      </c>
+      <c r="BH10">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.91783999999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>0.91015999999999997</v>
+      </c>
+      <c r="BK10">
+        <v>0.90344000000000002</v>
+      </c>
+      <c r="BL10">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="BM10">
+        <v>0.89583999999999997</v>
+      </c>
+      <c r="BN10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="BO10">
+        <v>0.88741999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="BQ10">
+        <v>0.91403999999999996</v>
+      </c>
+      <c r="BR10">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="BT10">
+        <v>0.90861999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.89973999999999998</v>
+      </c>
+      <c r="BV10">
+        <v>0.91261999999999999</v>
+      </c>
+      <c r="BW10">
+        <v>0.90956000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="BY10">
+        <v>0.91583999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="CA10">
+        <v>0.89237999999999995</v>
+      </c>
+      <c r="CB10">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="CC10">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="CD10">
+        <v>0.90722000000000003</v>
+      </c>
+      <c r="CE10">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="CF10">
+        <v>0.89748000000000006</v>
+      </c>
+      <c r="CG10">
+        <v>0.91503999999999996</v>
+      </c>
+      <c r="CH10">
+        <v>0.90444000000000002</v>
+      </c>
+      <c r="CI10">
+        <v>0.89281999999999995</v>
+      </c>
+      <c r="CJ10">
+        <v>0.9012</v>
+      </c>
+      <c r="CK10">
+        <v>0.90525999999999995</v>
+      </c>
+      <c r="CL10">
+        <v>0.91417999999999999</v>
+      </c>
+      <c r="CM10">
+        <v>0.92667999999999995</v>
+      </c>
+      <c r="CN10">
+        <v>0.89656000000000002</v>
+      </c>
+      <c r="CO10">
+        <v>0.91346000000000005</v>
+      </c>
+      <c r="CP10">
+        <v>0.90032000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.91386000000000001</v>
+      </c>
+      <c r="CR10">
+        <v>0.90464</v>
+      </c>
+      <c r="CS10">
+        <v>0.91083999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.90815999999999997</v>
+      </c>
+      <c r="CU10">
+        <v>0.91632000000000002</v>
+      </c>
+      <c r="CV10">
+        <v>0.90671999999999997</v>
+      </c>
+      <c r="CW10">
+        <v>0.90515899999999982</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.90136000000000005</v>
+      </c>
+      <c r="B11">
+        <v>0.9113</v>
+      </c>
+      <c r="C11">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.92096</v>
+      </c>
+      <c r="E11">
+        <v>0.90893999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.88636000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.91193999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.90276000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.91156000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.90291999999999994</v>
+      </c>
+      <c r="K11">
+        <v>0.90346000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.90258000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="N11">
+        <v>0.88483999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.91132000000000002</v>
+      </c>
+      <c r="P11">
+        <v>0.91124000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.90461999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.91498000000000002</v>
+      </c>
+      <c r="T11">
+        <v>0.89476</v>
+      </c>
+      <c r="U11">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.89354</v>
+      </c>
+      <c r="W11">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="X11">
+        <v>0.89854000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="Z11">
+        <v>0.91071999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>0.90117999999999998</v>
+      </c>
+      <c r="AB11">
+        <v>0.89814000000000005</v>
+      </c>
+      <c r="AC11">
+        <v>0.90281999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AE11">
+        <v>0.91064000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.90295999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="AI11">
+        <v>0.90671999999999997</v>
+      </c>
+      <c r="AJ11">
+        <v>0.90134000000000003</v>
+      </c>
+      <c r="AK11">
+        <v>0.90727000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>0.90956000000000004</v>
+      </c>
+      <c r="AM11">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="AN11">
         <v>0.89156000000000002</v>
       </c>
-      <c r="B3">
-        <v>0.90461999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.89809000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.88</v>
-      </c>
-      <c r="B4">
-        <v>0.90903999999999996</v>
-      </c>
-      <c r="C4">
-        <v>0.89451999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.89724000000000004</v>
-      </c>
-      <c r="B5">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="C5">
-        <v>0.90307000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.90847999999999995</v>
-      </c>
-      <c r="B6">
+      <c r="AO11">
+        <v>0.89292000000000005</v>
+      </c>
+      <c r="AP11">
+        <v>0.89615999999999996</v>
+      </c>
+      <c r="AQ11">
+        <v>0.89361999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.91137999999999997</v>
+      </c>
+      <c r="AS11">
+        <v>0.90317999999999998</v>
+      </c>
+      <c r="AT11">
+        <v>0.90022000000000002</v>
+      </c>
+      <c r="AU11">
+        <v>0.92625999999999997</v>
+      </c>
+      <c r="AV11">
+        <v>0.91503999999999996</v>
+      </c>
+      <c r="AW11">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.89405999999999997</v>
+      </c>
+      <c r="AY11">
+        <v>0.88607999999999998</v>
+      </c>
+      <c r="AZ11">
+        <v>0.93106</v>
+      </c>
+      <c r="BA11">
+        <v>0.89634000000000003</v>
+      </c>
+      <c r="BB11">
+        <v>0.90654000000000001</v>
+      </c>
+      <c r="BC11">
+        <v>0.89544000000000001</v>
+      </c>
+      <c r="BD11">
+        <v>0.90151999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.90783999999999998</v>
+      </c>
+      <c r="BF11">
+        <v>0.91086</v>
+      </c>
+      <c r="BG11">
+        <v>0.91086</v>
+      </c>
+      <c r="BH11">
         <v>0.90276000000000001</v>
       </c>
-      <c r="C6">
-        <v>0.90561999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.90671999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.90430999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.90517999999999998</v>
-      </c>
-      <c r="B8">
-        <v>0.90042</v>
-      </c>
-      <c r="C8">
-        <v>0.90280000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="B9">
-        <v>0.89992000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.90701000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.90173999999999999</v>
-      </c>
-      <c r="B10">
-        <v>0.90802000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.90488000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.91646000000000005</v>
-      </c>
-      <c r="B11">
-        <v>0.90314000000000005</v>
-      </c>
-      <c r="C11">
-        <v>0.90980000000000005</v>
+      <c r="BI11">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="BJ11">
+        <v>0.91105999999999998</v>
+      </c>
+      <c r="BK11">
+        <v>0.89927999999999997</v>
+      </c>
+      <c r="BL11">
+        <v>0.91452</v>
+      </c>
+      <c r="BM11">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="BO11">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="BP11">
+        <v>0.89056000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="BR11">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="BS11">
+        <v>0.90446000000000004</v>
+      </c>
+      <c r="BT11">
+        <v>0.89395999999999998</v>
+      </c>
+      <c r="BU11">
+        <v>0.89188000000000001</v>
+      </c>
+      <c r="BV11">
+        <v>0.90813999999999995</v>
+      </c>
+      <c r="BW11">
+        <v>0.90736000000000006</v>
+      </c>
+      <c r="BX11">
+        <v>0.91474</v>
+      </c>
+      <c r="BY11">
+        <v>0.90556000000000003</v>
+      </c>
+      <c r="BZ11">
+        <v>0.90971999999999997</v>
+      </c>
+      <c r="CA11">
+        <v>0.91742000000000001</v>
+      </c>
+      <c r="CB11">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="CC11">
+        <v>0.89258000000000004</v>
+      </c>
+      <c r="CD11">
+        <v>0.90415999999999996</v>
+      </c>
+      <c r="CE11">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="CF11">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="CG11">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="CH11">
+        <v>0.90366000000000002</v>
+      </c>
+      <c r="CI11">
+        <v>0.91186</v>
+      </c>
+      <c r="CJ11">
+        <v>0.90383999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.91766000000000003</v>
+      </c>
+      <c r="CL11">
+        <v>0.91342000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.91156000000000004</v>
+      </c>
+      <c r="CN11">
+        <v>0.91386000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.91498000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>0.90312000000000003</v>
+      </c>
+      <c r="CQ11">
+        <v>0.90793999999999997</v>
+      </c>
+      <c r="CR11">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="CS11">
+        <v>0.91771999999999998</v>
+      </c>
+      <c r="CT11">
+        <v>0.93098000000000003</v>
+      </c>
+      <c r="CU11">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="CV11">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="CW11">
+        <v>0.90603530000000021</v>
       </c>
     </row>
   </sheetData>
